--- a/First Project/data/data.xlsx
+++ b/First Project/data/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soonkpaik/Desktop/Parsons/Major Studio1/MajorStudio-1/First Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FDAD02-2710-544B-AF4C-8CDD43F949C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF5A72F-F50A-B44D-8F29-58DDFCC8659C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$D$1:$E$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$F$289</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2460,11 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B201" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2496,7 +2495,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -3476,7 +3475,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>154</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>174</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>194</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>195</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>203</v>
       </c>
@@ -4576,7 +4575,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>205</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>209</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>210</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>211</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>212</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>213</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>214</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>215</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>216</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>217</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>219</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>220</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>221</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>223</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>225</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>226</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>227</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>228</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>229</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>230</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>231</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>232</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>233</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>234</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>235</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>236</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>237</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>238</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>239</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>240</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>241</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>242</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>243</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>244</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>245</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>246</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>247</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>248</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>249</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>250</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>251</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>252</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>253</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>254</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>255</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>256</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>257</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>258</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>259</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>260</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>261</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>263</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>264</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>265</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>266</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>267</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>268</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>271</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>273</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>276</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>278</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>280</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>282</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>284</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>286</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>289</v>
       </c>
@@ -6076,7 +6075,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>292</v>
       </c>
@@ -6096,7 +6095,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>296</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>298</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>301</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>303</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>305</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>307</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>309</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>311</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>315</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>318</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>320</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>323</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>325</v>
       </c>
@@ -6376,7 +6375,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>327</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>328</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>330</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>332</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>334</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>336</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>338</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>340</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>342</v>
       </c>
@@ -6556,7 +6555,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>344</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>346</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>348</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>350</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1">
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>352</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1">
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>355</v>
       </c>
@@ -6676,7 +6675,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>357</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1">
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>359</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>362</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>366</v>
       </c>
@@ -6776,7 +6775,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>368</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>370</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>372</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>374</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>376</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>378</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1">
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>380</v>
       </c>
@@ -6916,7 +6915,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1">
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>382</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1">
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>384</v>
       </c>
@@ -6956,7 +6955,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1">
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>386</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1">
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>388</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1">
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>392</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>394</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>397</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>398</v>
       </c>
@@ -7096,7 +7095,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1">
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>400</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>402</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>404</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>406</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>408</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>410</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>412</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>414</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>417</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>419</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>421</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>423</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>425</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>427</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1">
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>429</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1">
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>431</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>433</v>
       </c>
@@ -7436,7 +7435,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>435</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1">
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>437</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>439</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1">
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>441</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1">
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>443</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1">
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>445</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1">
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>447</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1">
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>449</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1">
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>450</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1">
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>452</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>454</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1">
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>456</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1">
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>458</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1">
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>460</v>
       </c>
@@ -7716,7 +7715,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>462</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>464</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>466</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>468</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>470</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>472</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>474</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>476</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>478</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>480</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>482</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>484</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>486</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>488</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>490</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>492</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1">
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>494</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>496</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>498</v>
       </c>
@@ -8096,7 +8095,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>500</v>
       </c>
@@ -8116,7 +8115,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>502</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>504</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>506</v>
       </c>
@@ -8176,7 +8175,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>508</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1">
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>510</v>
       </c>
@@ -8216,7 +8215,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>512</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1">
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>514</v>
       </c>
@@ -8257,13 +8256,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:E289" xr:uid="{20ECD5DD-CFC5-E248-9FC7-398E877AF7E1}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1960s"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F289" xr:uid="{D0183056-CB33-684C-AC1E-E93738E890BA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>